--- a/medicine/Enfance/Plaine_de_jeux_et_crèche_Reine_Astrid/Plaine_de_jeux_et_crèche_Reine_Astrid.xlsx
+++ b/medicine/Enfance/Plaine_de_jeux_et_crèche_Reine_Astrid/Plaine_de_jeux_et_crèche_Reine_Astrid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
+          <t>Plaine_de_jeux_et_crèche_Reine_Astrid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La plaine de jeux et la crèche Reine Astrid de Liège sont situées dans le parc Astrid en bord de Meuse, dans le quartier de Coronmeuse.
 Le groupe d'architectes l'Équerre dessine le complexe en 1937. Sa construction s'achève en 1939 pour l'Exposition internationale de la technique de l'eau de la même année à Liège.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
+          <t>Plaine_de_jeux_et_crèche_Reine_Astrid</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plaine de jeux et la crèche Reine Astrid sont situées au numéro 1 du quai de Wallonie à Liège, en Coronmeuse.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
+          <t>Plaine_de_jeux_et_crèche_Reine_Astrid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +559,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Durant le début des années 1930, la population belge subit une crise économique et sociale. Les conditions de vie se sont dégradées (chômage, malnutrition, maladies, conditions sanitaires limitées, …). 
-Selon le ministre de la Santé, pour relever la population : « il faut qu'il y ait plus d'égouts, plus de distribution d'eau, plus de bassins de natation, plus de plaines de jeux, … »[1]. En plus de conseils d'alimentation, le sport à l'extérieur est promu. Pour les enfants, les plaines de jeux sont mises en avant par les hygiénistes. 
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant le début des années 1930, la population belge subit une crise économique et sociale. Les conditions de vie se sont dégradées (chômage, malnutrition, maladies, conditions sanitaires limitées, …). 
+Selon le ministre de la Santé, pour relever la population : « il faut qu'il y ait plus d'égouts, plus de distribution d'eau, plus de bassins de natation, plus de plaines de jeux, … ». En plus de conseils d'alimentation, le sport à l'extérieur est promu. Pour les enfants, les plaines de jeux sont mises en avant par les hygiénistes. 
 En 1936, depuis la création des congés payés en Belgique, la mise en place d'infrastructures de loisirs devient primordiale. 
-Politique
-Lucie Dejardin, conseillère socialiste propose de « mettre à disposition des enfants qui ne partent pas à la campagne ou à la mer, des infrastructures appropriées, c'est-à-dire propres, surveillées et à l'abri de la circulation automobile. »
-Conclusion du conseil communal : « nous sommes d'avis qu'il faut multiplier ces petites plages où les enfants peuvent jouer en toute liberté et en toute sécurité »[2].
-Économique
-Pour sortir de cette crise socio-économique, l'État belge décide de financer différents programmes : distribution d'eau, égouts, hôpitaux, maternités, plaines de jeux, …
 </t>
         </is>
       </c>
@@ -564,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
+          <t>Plaine_de_jeux_et_crèche_Reine_Astrid</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +593,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Contexte</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucie Dejardin, conseillère socialiste propose de « mettre à disposition des enfants qui ne partent pas à la campagne ou à la mer, des infrastructures appropriées, c'est-à-dire propres, surveillées et à l'abri de la circulation automobile. »
+Conclusion du conseil communal : « nous sommes d'avis qu'il faut multiplier ces petites plages où les enfants peuvent jouer en toute liberté et en toute sécurité ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plaine_de_jeux_et_crèche_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contexte</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Économique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour sortir de cette crise socio-économique, l'État belge décide de financer différents programmes : distribution d'eau, égouts, hôpitaux, maternités, plaines de jeux, …
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plaine_de_jeux_et_crèche_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Normes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pour obtenir ces subsides à cette époque, les plaines de jeux doivent répondre à certains critères : 
 Être situé dans un endroit salubre ;
@@ -594,40 +685,115 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plaine_de_jeux_et_crèche_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>La plaine de jeux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Convention
-Le 12 juillet 1937, un traité est signé par différents acteurs : l'État, la Ville de Liège et le Grand Liège. Le premier met le terrain à disposition de la Ville et de la coopérative, jusqu'au 30 juin 1940.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Convention</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 juillet 1937, un traité est signé par différents acteurs : l'État, la Ville de Liège et le Grand Liège. Le premier met le terrain à disposition de la Ville et de la coopérative, jusqu'au 30 juin 1940.
 Ils doivent créer un parc public, une plaine de jeux et un lieu de sport.
-Le groupe l'Équerre
-Le groupe l'Équerre est désigné pour diriger ce projet. Durant la conception de celui-ci, le groupe sort deux numéros de leur revue « L'Équerre » sur l'école et les enfants : « Enquête. Enfant. École. ». Dans ces deux écrits, George Linze explique : « L'architecture moderne doit jouer un rôle dans l'amélioration de la vie des enfants. L'amélioration de l'hygiène, l'air, la lumière et l'espace garanti le bon apprentissage des enfants ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plaine_de_jeux_et_crèche_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>La plaine de jeux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le groupe l'Équerre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe l'Équerre est désigné pour diriger ce projet. Durant la conception de celui-ci, le groupe sort deux numéros de leur revue « L'Équerre » sur l'école et les enfants : « Enquête. Enfant. École. ». Dans ces deux écrits, George Linze explique : « L'architecture moderne doit jouer un rôle dans l'amélioration de la vie des enfants. L'amélioration de l'hygiène, l'air, la lumière et l'espace garanti le bon apprentissage des enfants ».
 De par la parution de ces textes, le groupe est reconnu comme connaisseur en conception d'établissements éducatifs.
-Projet
-Le projet a pour but de pouvoir accueillir les enfants pendant que leurs parents découvrent l'Exposition internationale de l'eau de 1939 située à proximité. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Plaine_de_jeux_et_crèche_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>La plaine de jeux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Projet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet a pour but de pouvoir accueillir les enfants pendant que leurs parents découvrent l'Exposition internationale de l'eau de 1939 située à proximité. 
 Celui-ci comprend la création d'un parc/plaine de jeux et d'un bâtiment comprenant : vestiaires, réfectoires, préaux et autres locaux. 
 Le budget est de 2,5 millions de francs, dont 25 % est financé par l’État. 
 Le site est une dépression, permettant d'abriter les enfants des grands vents et des voitures.  
@@ -648,8 +814,43 @@
 			Côté nord de l'aile principale pour les plus grands
 			Réfectoires  -  largement vitrés vers le parc et la Meuse
 Le bâtiment s'inscrit dans le courant moderniste. Il respecte les 5 points de l'architecture moderne de Le Corbusier, constitué de volumes simples et sans décorations. Les grandes fenêtres laissent entrer la lumière et projettent l'espace intérieur vers l'extérieur. Il suit aussi des logiques de fonctionnalisme : éléments préfabriqués en béton assurant une isolation thermique et acoustique (dans les meilleures conditions pour l'époque) et plans simples. C'est une rupture avec l'architecture liégeoise de l'époque, plutôt traditionnelle.
-Utilisation durant l'Exposition
-Après sa construction, la presse salue le fonctionnalisme du complexe : « La plaine de jeux Reine Astrid, royaume des enfants. Pendant toute la durée de l'exposition, de splendides installations seront mises à la disposition des enfants. … Pour les mamans qui viendront à l'Exposition. Une pouponnière modèle fonctionnera pendant toute la durée de l'Exposition. »[3] ; « La garderie d'enfants créée à Coronmeuse est un modèle du genre »[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Plaine_de_jeux_et_crèche_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plaine_de_jeux_et_cr%C3%A8che_Reine_Astrid</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>La plaine de jeux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Utilisation durant l'Exposition</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après sa construction, la presse salue le fonctionnalisme du complexe : « La plaine de jeux Reine Astrid, royaume des enfants. Pendant toute la durée de l'exposition, de splendides installations seront mises à la disposition des enfants. … Pour les mamans qui viendront à l'Exposition. Une pouponnière modèle fonctionnera pendant toute la durée de l'Exposition. » ; « La garderie d'enfants créée à Coronmeuse est un modèle du genre »
 Le complexe est de nos jours un centre sportif. Il n'a pas subi de modifications architecturales, rare témoin d'un passé moderniste radical à Liège.
 </t>
         </is>
